--- a/data/trans_dic/P25A$voluntad-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4520385391884811</v>
+        <v>0.4503346854350687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6604983626013546</v>
+        <v>0.6516171576063013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6571817325592944</v>
+        <v>0.6589945001080474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4537039811607936</v>
+        <v>0.4355147810062827</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6427514899724385</v>
+        <v>0.6375470269539723</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.590457370997918</v>
+        <v>0.5886004613367737</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5076671953155092</v>
+        <v>0.4980573402636393</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7002680058013964</v>
+        <v>0.696077534332499</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6564764346937672</v>
+        <v>0.6654286787163582</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7211676357360092</v>
+        <v>0.7381590105953776</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8530963095898471</v>
+        <v>0.8532250938306842</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8432409470872527</v>
+        <v>0.8459848009682317</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8910389996285518</v>
+        <v>0.8892797980364231</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9057323847206956</v>
+        <v>0.9193948153927227</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8405723914703745</v>
+        <v>0.8338057780675355</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7408494209443224</v>
+        <v>0.7392840907708356</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8555078630205684</v>
+        <v>0.8496975764560247</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8149007414734484</v>
+        <v>0.8162846385814378</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4624137448971042</v>
+        <v>0.4649745604995572</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5743602412089927</v>
+        <v>0.5775772114715124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4377730930174628</v>
+        <v>0.4374914672656964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4198994749865867</v>
+        <v>0.412966560198841</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7477278520162298</v>
+        <v>0.7326672230945481</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5627691884659162</v>
+        <v>0.5657627978333932</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4855575061567259</v>
+        <v>0.4895400568971413</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6620068910953828</v>
+        <v>0.6570235976485259</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.510696817798631</v>
+        <v>0.5112848709425409</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6549341742930973</v>
+        <v>0.6490748891879425</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7554670183748139</v>
+        <v>0.7530207896277278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6737200644733454</v>
+        <v>0.6724878634046934</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8019630141862907</v>
+        <v>0.770286054208653</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.937540309146583</v>
+        <v>0.9319751471290877</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8905349279990782</v>
+        <v>0.8915569214011348</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6546047174052765</v>
+        <v>0.6550090544491083</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7989583063576928</v>
+        <v>0.7979204092685921</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.702137648729698</v>
+        <v>0.7056653526149655</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5017192448762571</v>
+        <v>0.4995979501868615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5965108979384024</v>
+        <v>0.5974769801780522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.417333317922165</v>
+        <v>0.4102105678155205</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5208528345748212</v>
+        <v>0.4744583920237177</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5453512830117664</v>
+        <v>0.5663173401803213</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5401870514709961</v>
+        <v>0.5600849376046573</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5419674042923636</v>
+        <v>0.5328668812442301</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6349517364113662</v>
+        <v>0.6352386484320092</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4899973164902877</v>
+        <v>0.490417080257034</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7426561526547308</v>
+        <v>0.7468252532191912</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.799599926168819</v>
+        <v>0.7917229267004829</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6595226160701406</v>
+        <v>0.6643387559630021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9374654016524987</v>
+        <v>0.9373335107715571</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8947549003640204</v>
+        <v>0.8985234860759449</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.865350370777735</v>
+        <v>0.893998396341129</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7609955277780812</v>
+        <v>0.7572833201547057</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8068003733740922</v>
+        <v>0.7985490941278871</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6886024906773701</v>
+        <v>0.684498735567919</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5301246473954979</v>
+        <v>0.5346731229781551</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6139612064061364</v>
+        <v>0.6105002863046253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4765962376881113</v>
+        <v>0.4766415508231872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4362393814892553</v>
+        <v>0.4452005363459206</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7239166855563991</v>
+        <v>0.722943312378183</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4387980427612854</v>
+        <v>0.4466162272660299</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5448006308402892</v>
+        <v>0.5380236336246441</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6763831110722607</v>
+        <v>0.6773251990821955</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5061490711710758</v>
+        <v>0.4984559772687838</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.743838698125984</v>
+        <v>0.7412981513061027</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7935686495133588</v>
+        <v>0.7918304041228812</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6862125732008362</v>
+        <v>0.6863457774127729</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7447197569455786</v>
+        <v>0.7455030406750908</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9392961061028027</v>
+        <v>0.9383023626889855</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7281924636645324</v>
+        <v>0.7398195627544178</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7199758243235086</v>
+        <v>0.7132526204835063</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8214554397293448</v>
+        <v>0.8159438512130344</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6765873910769792</v>
+        <v>0.6720640109901574</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6728990629868913</v>
+        <v>0.6732342907744777</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5857718464107053</v>
+        <v>0.5748383418764684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.410079856050275</v>
+        <v>0.4142535502932348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7178827491426272</v>
+        <v>0.7378844847848814</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5012422538123692</v>
+        <v>0.4986297022079754</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2070781904532583</v>
+        <v>0.2083916183931366</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7508805916245168</v>
+        <v>0.7348273165657292</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6050407756618321</v>
+        <v>0.6004530795462375</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.379247421438799</v>
+        <v>0.3934890068438244</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9073691827958063</v>
+        <v>0.9105521808154922</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8520952764976325</v>
+        <v>0.8464714382210695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7569844706626873</v>
+        <v>0.7767131288662552</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9699836397377779</v>
+        <v>0.9686194975400175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8523332462189461</v>
+        <v>0.8552479677343304</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.68866888438921</v>
+        <v>0.6767431176283222</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9181166250761875</v>
+        <v>0.9117132976152551</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8208547099350959</v>
+        <v>0.8288593012488996</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6756369091508452</v>
+        <v>0.680112459858888</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2903674535586785</v>
+        <v>0.2937866778518183</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5954819732573744</v>
+        <v>0.6116729033171453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5653348225615688</v>
+        <v>0.5835640562564991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2784245177037662</v>
+        <v>0.3252202579955326</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5721640044221125</v>
+        <v>0.5883611765350086</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5697630805750357</v>
+        <v>0.5984503145426544</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3399615170375423</v>
+        <v>0.3434421367091931</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6379981368902286</v>
+        <v>0.6436426061643139</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6220115132390776</v>
+        <v>0.6250698673411846</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5572299077330306</v>
+        <v>0.5605841919353228</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8005022068953851</v>
+        <v>0.8120540753463596</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8394041973845167</v>
+        <v>0.843232887895209</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7643936613244752</v>
+        <v>0.7724239853402227</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9521370184502268</v>
+        <v>0.9543969955744832</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9488931755093967</v>
+        <v>0.9498076708917618</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5763395686053224</v>
+        <v>0.5702962652487917</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8149799747862684</v>
+        <v>0.8223398114245487</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8335988325167847</v>
+        <v>0.8445407684684577</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4641506863312404</v>
+        <v>0.4723516351629957</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6030586464253525</v>
+        <v>0.5976983100877254</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.341346823870015</v>
+        <v>0.3293665781639924</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3757327921965749</v>
+        <v>0.3816045394783792</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6305828412597626</v>
+        <v>0.6478089427287707</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5397432968900033</v>
+        <v>0.5513869990902879</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4905766521112001</v>
+        <v>0.4867980723383344</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6441278872116663</v>
+        <v>0.6426554445541056</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4480912057614548</v>
+        <v>0.4434008524926003</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6692743279654961</v>
+        <v>0.6642398465724975</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7578514640944847</v>
+        <v>0.7506471510762527</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5298003198310507</v>
+        <v>0.5112103981707801</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7212444636995123</v>
+        <v>0.7270194419165364</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8337045925399549</v>
+        <v>0.8374504051232039</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7603200957601305</v>
+        <v>0.7578718057963076</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6639959069389686</v>
+        <v>0.6632029520546076</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7617526792108067</v>
+        <v>0.7592137271052262</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5931626271153041</v>
+        <v>0.5894495199581393</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.417311479456993</v>
+        <v>0.4214353374716115</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4132274132708998</v>
+        <v>0.4022304094903885</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6556659797126766</v>
+        <v>0.6459285122387253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5380709140539492</v>
+        <v>0.5432636543298686</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5683521073430702</v>
+        <v>0.5697752348390596</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6553939180285776</v>
+        <v>0.6715642515267476</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4799845565097478</v>
+        <v>0.4877363769809347</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4920987107145616</v>
+        <v>0.4922475389411763</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6887072935040597</v>
+        <v>0.6872006517795646</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5878211266283087</v>
+        <v>0.5839715032869767</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.59967772714006</v>
+        <v>0.5922647926673235</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8211322783596315</v>
+        <v>0.825975987914797</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7556035649784036</v>
+        <v>0.760303480261513</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7965305638253231</v>
+        <v>0.7935202931732857</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.879835098091436</v>
+        <v>0.8918606145687409</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6202622179409314</v>
+        <v>0.6182619272190845</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6414528636590955</v>
+        <v>0.6358498277745528</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.821772183203724</v>
+        <v>0.8274216619278452</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5349144469809471</v>
+        <v>0.5357665101311883</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5613329628371764</v>
+        <v>0.5621053924015181</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7275233807978522</v>
+        <v>0.7290823096183738</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6508375961831104</v>
+        <v>0.647060162328379</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5676105368318644</v>
+        <v>0.5664853890876614</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.6760217306435646</v>
+        <v>0.6778407519312715</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6031639810568723</v>
+        <v>0.6038671097022204</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6123322106212458</v>
+        <v>0.6164507688180445</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6445516568805778</v>
+        <v>0.6410244520973802</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8138878409392467</v>
+        <v>0.8212771711365582</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7480666747539766</v>
+        <v>0.7487904730075948</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.632976930546761</v>
+        <v>0.6312384192065079</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7319285241105475</v>
+        <v>0.7303578141698491</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6660709451025458</v>
+        <v>0.6690875889087129</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20997</v>
+        <v>20918</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>53567</v>
+        <v>52847</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>51891</v>
+        <v>52034</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9107</v>
+        <v>8742</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25731</v>
+        <v>25523</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30693</v>
+        <v>30596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33771</v>
+        <v>33132</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>84826</v>
+        <v>84318</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>85960</v>
+        <v>87132</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33498</v>
+        <v>34287</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>69187</v>
+        <v>69197</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>66582</v>
+        <v>66799</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17886</v>
+        <v>17851</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36259</v>
+        <v>36806</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43694</v>
+        <v>43342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49283</v>
+        <v>49179</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>103630</v>
+        <v>102926</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>106704</v>
+        <v>106885</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52645</v>
+        <v>52936</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>69465</v>
+        <v>69854</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31663</v>
+        <v>31643</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10856</v>
+        <v>10677</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>44724</v>
+        <v>43823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16485</v>
+        <v>16572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>67833</v>
+        <v>68390</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>119662</v>
+        <v>118761</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>51897</v>
+        <v>51957</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>74563</v>
+        <v>73896</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>91368</v>
+        <v>91073</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48729</v>
+        <v>48640</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20734</v>
+        <v>19915</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>56077</v>
+        <v>55744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26086</v>
+        <v>26115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>91450</v>
+        <v>91506</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>144417</v>
+        <v>144229</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>71351</v>
+        <v>71710</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31979</v>
+        <v>31843</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49094</v>
+        <v>49174</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25878</v>
+        <v>25436</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7415</v>
+        <v>6754</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17877</v>
+        <v>18564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14913</v>
+        <v>15463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42259</v>
+        <v>41550</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73072</v>
+        <v>73105</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>43911</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47335</v>
+        <v>47601</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65809</v>
+        <v>65160</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40895</v>
+        <v>41194</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13346</v>
+        <v>13344</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29330</v>
+        <v>29454</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23891</v>
+        <v>24682</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59338</v>
+        <v>59048</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>92848</v>
+        <v>91899</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>61709</v>
+        <v>61341</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40226</v>
+        <v>40571</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>64734</v>
+        <v>64369</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41508</v>
+        <v>41512</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16438</v>
+        <v>16776</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33656</v>
+        <v>33611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19598</v>
+        <v>19947</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>61869</v>
+        <v>61099</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>102762</v>
+        <v>102905</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>66689</v>
+        <v>65675</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56442</v>
+        <v>56250</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>83671</v>
+        <v>83488</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59764</v>
+        <v>59776</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28063</v>
+        <v>28092</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>43670</v>
+        <v>43624</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32523</v>
+        <v>33043</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>81762</v>
+        <v>80998</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>124803</v>
+        <v>123966</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>89145</v>
+        <v>88549</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>27664</v>
+        <v>27677</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29536</v>
+        <v>28985</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13010</v>
+        <v>13143</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>20839</v>
+        <v>21419</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13459</v>
+        <v>13389</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3538</v>
+        <v>3560</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>52666</v>
+        <v>51540</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>46755</v>
+        <v>46400</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>18511</v>
+        <v>19207</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37303</v>
+        <v>37434</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>42965</v>
+        <v>42682</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24016</v>
+        <v>24642</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28157</v>
+        <v>28117</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>22887</v>
+        <v>22965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11766</v>
+        <v>11562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>64396</v>
+        <v>63947</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>63432</v>
+        <v>64050</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32979</v>
+        <v>33197</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15352</v>
+        <v>15533</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>49492</v>
+        <v>50837</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>25086</v>
+        <v>25895</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5238</v>
+        <v>6118</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12501</v>
+        <v>12855</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9572</v>
+        <v>10054</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>24369</v>
+        <v>24619</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>66965</v>
+        <v>67557</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>38050</v>
+        <v>38237</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29461</v>
+        <v>29638</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>66531</v>
+        <v>67491</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37248</v>
+        <v>37418</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14380</v>
+        <v>14531</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20803</v>
+        <v>20853</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>15941</v>
+        <v>15957</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>41313</v>
+        <v>40880</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>85541</v>
+        <v>86314</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>50994</v>
+        <v>51663</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>42776</v>
+        <v>43532</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>98015</v>
+        <v>97143</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>43320</v>
+        <v>41800</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>12350</v>
+        <v>12543</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>57899</v>
+        <v>59481</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>45574</v>
+        <v>46557</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>61337</v>
+        <v>60864</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>163832</v>
+        <v>163457</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>94702</v>
+        <v>93711</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>61680</v>
+        <v>61216</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>123173</v>
+        <v>122002</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>67236</v>
+        <v>64877</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>23707</v>
+        <v>23897</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>76549</v>
+        <v>76893</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>64199</v>
+        <v>63992</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>83019</v>
+        <v>82920</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>193750</v>
+        <v>193104</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>125363</v>
+        <v>124578</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>57803</v>
+        <v>58374</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>53813</v>
+        <v>52381</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>66943</v>
+        <v>65949</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>38838</v>
+        <v>39213</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>38038</v>
+        <v>38133</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>41909</v>
+        <v>42943</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>101129</v>
+        <v>102762</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>97019</v>
+        <v>97048</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>114354</v>
+        <v>114104</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>81420</v>
+        <v>80887</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>78094</v>
+        <v>77128</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>83837</v>
+        <v>84331</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>54540</v>
+        <v>54879</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>53309</v>
+        <v>53108</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>56260</v>
+        <v>57029</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>130684</v>
+        <v>130263</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>126464</v>
+        <v>125360</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>136449</v>
+        <v>137387</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>334090</v>
+        <v>334623</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>339884</v>
+        <v>340352</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>281234</v>
+        <v>281836</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>218557</v>
+        <v>217289</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>496831</v>
+        <v>495846</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>813008</v>
+        <v>815196</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>567761</v>
+        <v>568423</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>382443</v>
+        <v>385015</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>390273</v>
+        <v>388137</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>314619</v>
+        <v>317475</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>251208</v>
+        <v>251451</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>554047</v>
+        <v>552525</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>880244</v>
+        <v>878355</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>626975</v>
+        <v>629815</v>
       </c>
     </row>
     <row r="40">
